--- a/template/Fitness_Tracker_Template.xlsx
+++ b/template/Fitness_Tracker_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29622"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b707867836fc74b/Dokumente/Fraunhofer Data Scientist/Personal Fitness BI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{163A29AB-9D0B-462B-BB8E-95818C074CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCCC6009-E227-44F7-BB4F-72161BC008BB}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{163A29AB-9D0B-462B-BB8E-95818C074CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A42D360-54BE-46D0-A031-DC49CA0061EF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AC74CDD0-5D00-4C70-81C1-75EDE2F8D95B}"/>
+    <workbookView xWindow="31920" yWindow="630" windowWidth="14130" windowHeight="10755" xr2:uid="{AC74CDD0-5D00-4C70-81C1-75EDE2F8D95B}"/>
   </bookViews>
   <sheets>
     <sheet name="Form1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -147,13 +147,91 @@
   </si>
   <si>
     <t>Handeln und Rudergerät</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>Waldrundtour</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>14.8</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>141</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,14 +260,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -243,8 +322,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7001E599-5D34-4A04-A539-F7EBB71155BD}" name="Tabelle1" displayName="Tabelle1" ref="A1:K7" totalsRowShown="0">
-  <autoFilter ref="A1:K7" xr:uid="{7001E599-5D34-4A04-A539-F7EBB71155BD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7001E599-5D34-4A04-A539-F7EBB71155BD}" name="Tabelle1" displayName="Tabelle1" ref="A1:K17" totalsRowShown="0">
+  <autoFilter ref="A1:K17" xr:uid="{7001E599-5D34-4A04-A539-F7EBB71155BD}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{4DEF68C9-3D45-4971-BEAD-BA62808BEEFB}" name="ID" dataDxfId="10">
       <extLst>
@@ -327,7 +406,7 @@
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{839C7E11-91E4-4DBD-9C5D-0DEA604FA9AC}">
-      <xlmsforms:msForm id="DQSIkWdsW0yxEjajBLZtrQAAAAAAAAAAAAO__dCfOC1UQlM2VERSRDBZWTVLVldPNVFSWFYwUDNVTS4u" isFormConnected="1" maxResponseId="6" latestEventMarker="12">
+      <xlmsforms:msForm id="DQSIkWdsW0yxEjajBLZtrQAAAAAAAAAAAAO__dCfOC1UQlM2VERSRDBZWTVLVldPNVFSWFYwUDNVTS4u" isFormConnected="1" maxResponseId="16" latestEventMarker="22">
         <xlmsforms:syncedQuestionId>id</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>startDate</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>submitDate</xlmsforms:syncedQuestionId>
@@ -662,249 +741,554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB10046-FDD9-469F-85BA-5F48A96DDB96}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>46018.378229166701</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>46018.381400462997</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
         <v>46017</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>46018.3827199074</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>46018.383703703701</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3">
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2">
         <v>46016</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>46018.737962963001</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>46018.738217592603</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
         <v>46014</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>46018.738240740699</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>46018.738969907397</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
         <v>46012</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>46018.739004629599</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>46018.739432870403</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
         <v>46011</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>46018.739456018498</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>46018.739791666703</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
         <v>46010</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="10:10">
-      <c r="J19" s="4"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>46018.755636574097</v>
+      </c>
+      <c r="C8" s="1">
+        <v>46018.758020833302</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="2">
+        <v>46008</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>46018.758043981499</v>
+      </c>
+      <c r="C9" s="1">
+        <v>46018.758865740703</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="2">
+        <v>46007</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>46018.7588888889</v>
+      </c>
+      <c r="C10" s="1">
+        <v>46018.759108796301</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="2">
+        <v>46006</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>46018.759131944404</v>
+      </c>
+      <c r="C11" s="1">
+        <v>46018.7593402778</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="2">
+        <v>46005</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>46018.759363425903</v>
+      </c>
+      <c r="C12" s="1">
+        <v>46018.759594907402</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="2">
+        <v>46011</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>46018.759756944397</v>
+      </c>
+      <c r="C13" s="1">
+        <v>46018.764756944402</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="2">
+        <v>46004</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>46018.764780092599</v>
+      </c>
+      <c r="C14" s="1">
+        <v>46018.764976851897</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="2">
+        <v>46005</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>46018.764999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>46018.765208333301</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="2">
+        <v>46002</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>46018.765231481499</v>
+      </c>
+      <c r="C16" s="1">
+        <v>46018.765405092599</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="2">
+        <v>46001</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>46018.765416666698</v>
+      </c>
+      <c r="C17" s="1">
+        <v>46018.765636574099</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="2">
+        <v>46000</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/Fitness_Tracker_Template.xlsx
+++ b/template/Fitness_Tracker_Template.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b707867836fc74b/Dokumente/Fraunhofer Data Scientist/Personal Fitness BI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b707867836fc74b/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{163A29AB-9D0B-462B-BB8E-95818C074CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A42D360-54BE-46D0-A031-DC49CA0061EF}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AD74628D-BE06-4FC1-BE04-2187DD70E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4428E8C1-4597-4247-B4D6-A405EA53C2E5}"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="630" windowWidth="14130" windowHeight="10755" xr2:uid="{AC74CDD0-5D00-4C70-81C1-75EDE2F8D95B}"/>
+    <workbookView xWindow="2640" yWindow="1320" windowWidth="24570" windowHeight="11670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Form1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
-  <si>
-    <t>ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="136">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Startzeit</t>
@@ -71,7 +71,7 @@
     <t>Beschreibung / Notizen</t>
   </si>
   <si>
-    <t>anonym</t>
+    <t>anonymous</t>
   </si>
   <si>
     <t>Laufen</t>
@@ -225,6 +225,225 @@
   </si>
   <si>
     <t>141</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>Schwimmen Leipheim</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Intervalle 3x8x40/20</t>
+  </si>
+  <si>
+    <t>14,1</t>
+  </si>
+  <si>
+    <t>Dauerlauf</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>37,7</t>
+  </si>
+  <si>
+    <t>Indoor</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>31,80</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>Schwimmtraining</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>15,1</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>Intervalle 800/400/200</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>20,5</t>
+  </si>
+  <si>
+    <t>Longrun</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>12,2</t>
+  </si>
+  <si>
+    <t>26,4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12,7</t>
+  </si>
+  <si>
+    <t>Intervalle 2x6x1min</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2,6</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>64,8</t>
+  </si>
+  <si>
+    <t>8,5</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>20,2</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>26,1</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>14,11</t>
+  </si>
+  <si>
+    <t>36,6</t>
+  </si>
+  <si>
+    <t>27,3</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Intervalle 3x5x1min</t>
+  </si>
+  <si>
+    <t>3,8</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>27,8</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>41,1</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>14,2</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>19,4</t>
+  </si>
+  <si>
+    <t>Laktattest</t>
+  </si>
+  <si>
+    <t>20,1</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>38,8</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>56</t>
   </si>
 </sst>
 </file>
@@ -235,7 +454,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -260,50 +479,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -322,80 +527,83 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7001E599-5D34-4A04-A539-F7EBB71155BD}" name="Tabelle1" displayName="Tabelle1" ref="A1:K17" totalsRowShown="0">
-  <autoFilter ref="A1:K17" xr:uid="{7001E599-5D34-4A04-A539-F7EBB71155BD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:K59" totalsRowShown="0">
+  <autoFilter ref="A1:K59" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K59">
+    <sortCondition ref="F1:F59"/>
+  </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{4DEF68C9-3D45-4971-BEAD-BA62808BEEFB}" name="ID" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="7">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="id"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CEB4DC03-7414-4BED-ACB4-743483423B2E}" name="Startzeit" dataDxfId="9">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Startzeit">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="startDate"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5C56896E-0CD0-46BE-88E3-10C2BB2D8087}" name="Fertigstellungszeit" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Fertigstellungszeit">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="submitDate"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0EDAF140-9644-4295-93CB-167A45C7105D}" name="E-Mail" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="E-Mail" dataDxfId="6">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="responder"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7472A7AA-8B34-415C-AFA7-D59436A189DA}" name="Name" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="5">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="responderName"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A9280F0B-0297-4FAE-BB62-8A6C84B15801}" name="Wann war das Training?" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Wann war das Training?">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r804cfc365e584e169a9bdbb7773d7721"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5883EB6C-F249-4AD0-912A-EBC705131737}" name="Was hast du gemacht?" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Was hast du gemacht?" dataDxfId="4">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rcf27327bf5334db5a4db2f22e5c59432"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E123CEF3-FE46-4724-AAEA-CA78803A6CB5}" name="Dauer (in Minuten)" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Dauer (in Minuten)" dataDxfId="3">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r428c8706cfa14ee3b2da89c86ec8135d"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{040A5F61-3198-49D5-8CC3-34919EAB390C}" name="Distanz (in km)" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Distanz (in km)" dataDxfId="2">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rb93ad2f6220d4842ae9703152a785101"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1FB9A2D9-0B92-4A7C-A3F0-661A3839D44C}" name="Durchschnitts-Puls" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Durchschnitts-Puls" dataDxfId="1">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rd7ce86880abb4e199cbb3dc001c1c5d7"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{4D37EBAF-9E61-40E2-BC28-2A8DF7C6FE05}" name="Beschreibung / Notizen" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Beschreibung / Notizen" dataDxfId="0">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r2efa8f09e0a0428a904eb72068ba1f37"/>
@@ -406,7 +614,7 @@
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{839C7E11-91E4-4DBD-9C5D-0DEA604FA9AC}">
-      <xlmsforms:msForm id="DQSIkWdsW0yxEjajBLZtrQAAAAAAAAAAAAO__dCfOC1UQlM2VERSRDBZWTVLVldPNVFSWFYwUDNVTS4u" isFormConnected="1" maxResponseId="16" latestEventMarker="22">
+      <xlmsforms:msForm id="DQSIkWdsW0yxEjajBLZtrQAAAAAAAAAAAAO__dCfOC1UQlM2VERSRDBZWTVLVldPNVFSWFYwUDNVTS4u" isFormConnected="1" maxResponseId="58" latestEventMarker="64">
         <xlmsforms:syncedQuestionId>id</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>startDate</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>submitDate</xlmsforms:syncedQuestionId>
@@ -425,7 +633,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -435,44 +643,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -519,12 +727,12 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -630,6 +838,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -638,13 +853,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -709,58 +917,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB10046-FDD9-469F-85BA-5F48A96DDB96}">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="31.28515625" customWidth="1"/>
+    <col min="1" max="11" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -769,7 +956,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -790,510 +977,1712 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>46018.378229166701</v>
-      </c>
-      <c r="C2" s="1">
-        <v>46018.381400462997</v>
+        <v>17</v>
+      </c>
+      <c r="B2" s="3">
+        <v>46019.886620370373</v>
+      </c>
+      <c r="C2" s="3">
+        <v>46019.887685185182</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="2">
-        <v>46017</v>
+        <v>45992</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>46018.3827199074</v>
-      </c>
-      <c r="C3" s="1">
-        <v>46018.383703703701</v>
+        <v>18</v>
+      </c>
+      <c r="B3" s="3">
+        <v>46019.887754629628</v>
+      </c>
+      <c r="C3" s="3">
+        <v>46019.888425925928</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="2">
-        <v>46016</v>
+        <v>45992</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>46018.737962963001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>46018.738217592603</v>
+        <v>19</v>
+      </c>
+      <c r="B4" s="3">
+        <v>46019.888437499998</v>
+      </c>
+      <c r="C4" s="3">
+        <v>46019.889340277776</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2">
-        <v>46014</v>
+        <v>45993</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>46018.738240740699</v>
-      </c>
-      <c r="C5" s="1">
-        <v>46018.738969907397</v>
+        <v>20</v>
+      </c>
+      <c r="B5" s="3">
+        <v>46019.889363425929</v>
+      </c>
+      <c r="C5" s="3">
+        <v>46019.889837962961</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2">
-        <v>46012</v>
+        <v>45993</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>46018.739004629599</v>
-      </c>
-      <c r="C6" s="1">
-        <v>46018.739432870403</v>
+        <v>54</v>
+      </c>
+      <c r="B6" s="3">
+        <v>46019.902719907404</v>
+      </c>
+      <c r="C6" s="3">
+        <v>46019.902928240743</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2">
-        <v>46011</v>
+        <v>45993</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>46018.739456018498</v>
-      </c>
-      <c r="C7" s="1">
-        <v>46018.739791666703</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="3">
+        <v>46019.889849537038</v>
+      </c>
+      <c r="C7" s="3">
+        <v>46019.890208333331</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="2">
-        <v>46010</v>
+        <v>45994</v>
       </c>
       <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3">
+        <v>46019.890219907407</v>
+      </c>
+      <c r="C8" s="3">
+        <v>46019.890543981484</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45994</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3">
+        <v>46019.890567129631</v>
+      </c>
+      <c r="C9" s="3">
+        <v>46019.891122685185</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45995</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3">
+        <v>46019.902939814812</v>
+      </c>
+      <c r="C10" s="3">
+        <v>46019.903090277781</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45995</v>
+      </c>
+      <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>46018.755636574097</v>
-      </c>
-      <c r="C8" s="1">
-        <v>46018.758020833302</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="2">
-        <v>46008</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="H10" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3">
+        <v>46019.891134259262</v>
+      </c>
+      <c r="C11" s="3">
+        <v>46019.891412037039</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45996</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3">
+        <v>46019.891435185185</v>
+      </c>
+      <c r="C12" s="3">
+        <v>46019.891724537039</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45996</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3">
+        <v>46019.891770833332</v>
+      </c>
+      <c r="C13" s="3">
+        <v>46019.892141203702</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45997</v>
+      </c>
+      <c r="G13" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>46018.758043981499</v>
-      </c>
-      <c r="C9" s="1">
-        <v>46018.758865740703</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="2">
-        <v>46007</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="H13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3">
+        <v>46019.892164351855</v>
+      </c>
+      <c r="C14" s="3">
+        <v>46019.892430555556</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45998</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3">
+        <v>46019.892453703702</v>
+      </c>
+      <c r="C15" s="3">
+        <v>46019.892951388887</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45999</v>
+      </c>
+      <c r="G15" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>46018.7588888889</v>
-      </c>
-      <c r="C10" s="1">
-        <v>46018.759108796301</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="2">
-        <v>46006</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>46018.759131944404</v>
-      </c>
-      <c r="C11" s="1">
-        <v>46018.7593402778</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="2">
-        <v>46005</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="H15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>29</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>46018.759363425903</v>
-      </c>
-      <c r="C12" s="1">
-        <v>46018.759594907402</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="2">
-        <v>46011</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="B16" s="3">
+        <v>46019.892974537041</v>
+      </c>
+      <c r="C16" s="3">
+        <v>46019.89335648148</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45999</v>
+      </c>
+      <c r="G16" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>46018.759756944397</v>
-      </c>
-      <c r="C13" s="1">
-        <v>46018.764756944402</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="2">
-        <v>46004</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>46018.764780092599</v>
-      </c>
-      <c r="C14" s="1">
-        <v>46018.764976851897</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="2">
-        <v>46005</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>46018.764999999999</v>
-      </c>
-      <c r="C15" s="1">
-        <v>46018.765208333301</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="2">
-        <v>46002</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>46018.765231481499</v>
-      </c>
-      <c r="C16" s="1">
-        <v>46018.765405092599</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="2">
-        <v>46001</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="5"/>
+      <c r="H16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>46018.765416666698</v>
-      </c>
-      <c r="C17" s="1">
-        <v>46018.765636574099</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="5"/>
+      <c r="B17" s="3">
+        <v>46018.765416666669</v>
+      </c>
+      <c r="C17" s="3">
+        <v>46018.765636574077</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
       <c r="F17" s="2">
         <v>46000</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>56</v>
+      </c>
+      <c r="B18" s="3">
+        <v>46019.903113425928</v>
+      </c>
+      <c r="C18" s="3">
+        <v>46019.903298611112</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2">
+        <v>46000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>46018.765231481484</v>
+      </c>
+      <c r="C19" s="3">
+        <v>46018.765405092592</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2">
+        <v>46001</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3">
+        <v>46019.893368055556</v>
+      </c>
+      <c r="C20" s="3">
+        <v>46019.893761574072</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2">
+        <v>46001</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>31</v>
+      </c>
+      <c r="B21" s="3">
+        <v>46019.893784722219</v>
+      </c>
+      <c r="C21" s="3">
+        <v>46019.894062500003</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2">
+        <v>46001</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3">
+        <v>46018.764999999999</v>
+      </c>
+      <c r="C22" s="3">
+        <v>46018.765208333331</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2">
+        <v>46002</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3">
+        <v>46019.894085648149</v>
+      </c>
+      <c r="C23" s="3">
+        <v>46019.894537037035</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2">
+        <v>46002</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3">
+        <v>46018.759756944448</v>
+      </c>
+      <c r="C24" s="3">
+        <v>46018.764756944445</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2">
+        <v>46004</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>33</v>
+      </c>
+      <c r="B25" s="3">
+        <v>46019.894560185188</v>
+      </c>
+      <c r="C25" s="3">
+        <v>46019.894907407404</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2">
+        <v>46004</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>34</v>
+      </c>
+      <c r="B26" s="3">
+        <v>46019.894930555558</v>
+      </c>
+      <c r="C26" s="3">
+        <v>46019.895555555559</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2">
+        <v>46004</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" t="s">
+        <v>100</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>35</v>
+      </c>
+      <c r="B27" s="3">
+        <v>46019.895601851851</v>
+      </c>
+      <c r="C27" s="3">
+        <v>46019.895891203705</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2">
+        <v>46004</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" t="s">
+        <v>102</v>
+      </c>
+      <c r="K27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28" s="3">
+        <v>46018.759131944447</v>
+      </c>
+      <c r="C28" s="3">
+        <v>46018.759340277778</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2">
+        <v>46005</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J29" s="3"/>
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29" s="3">
+        <v>46018.764780092592</v>
+      </c>
+      <c r="C29" s="3">
+        <v>46018.764976851853</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2">
+        <v>46005</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>36</v>
+      </c>
+      <c r="B30" s="3">
+        <v>46019.895925925928</v>
+      </c>
+      <c r="C30" s="3">
+        <v>46019.896296296298</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2">
+        <v>46005</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" t="s">
+        <v>104</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>57</v>
+      </c>
+      <c r="B31" s="3">
+        <v>46019.903310185182</v>
+      </c>
+      <c r="C31" s="3">
+        <v>46019.903657407405</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2">
+        <v>46005</v>
+      </c>
+      <c r="G31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32" s="3">
+        <v>46018.758888888886</v>
+      </c>
+      <c r="C32" s="3">
+        <v>46018.759108796294</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2">
+        <v>46006</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>37</v>
+      </c>
+      <c r="B33" s="3">
+        <v>46019.896331018521</v>
+      </c>
+      <c r="C33" s="3">
+        <v>46019.897002314814</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2">
+        <v>46006</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" t="s">
+        <v>71</v>
+      </c>
+      <c r="K33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3">
+        <v>46018.758043981485</v>
+      </c>
+      <c r="C34" s="3">
+        <v>46018.75886574074</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2">
+        <v>46007</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" s="3">
+        <v>46018.755636574075</v>
+      </c>
+      <c r="C35" s="3">
+        <v>46018.758020833331</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2">
+        <v>46008</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" s="3">
+        <v>46018.73945601852</v>
+      </c>
+      <c r="C36" s="3">
+        <v>46018.739791666667</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2">
+        <v>46010</v>
+      </c>
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37" s="3">
+        <v>46019.897048611114</v>
+      </c>
+      <c r="C37" s="3">
+        <v>46019.897291666668</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2">
+        <v>46010</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" t="s">
+        <v>107</v>
+      </c>
+      <c r="K37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3">
+        <v>46018.739004629628</v>
+      </c>
+      <c r="C38" s="3">
+        <v>46018.739432870374</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="2">
+        <v>46011</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39" s="3">
+        <v>46018.759363425925</v>
+      </c>
+      <c r="C39" s="3">
+        <v>46018.759594907409</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="2">
+        <v>46011</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>46019.897349537037</v>
+      </c>
+      <c r="C40" s="3">
+        <v>46019.897604166668</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="2">
+        <v>46011</v>
+      </c>
+      <c r="G40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I40" t="s">
+        <v>109</v>
+      </c>
+      <c r="K40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>46019.897638888891</v>
+      </c>
+      <c r="C41" s="3">
+        <v>46019.897939814815</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2">
+        <v>46011</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" t="s">
+        <v>88</v>
+      </c>
+      <c r="K41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" s="3">
+        <v>46018.738240740742</v>
+      </c>
+      <c r="C42" s="3">
+        <v>46018.738969907405</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="2">
+        <v>46012</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3">
+        <v>46019.897962962961</v>
+      </c>
+      <c r="C43" s="3">
+        <v>46019.898402777777</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="2">
+        <v>46012</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" t="s">
+        <v>112</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <v>46019.898414351854</v>
+      </c>
+      <c r="C44" s="3">
+        <v>46019.89875</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="2">
+        <v>46012</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" t="s">
+        <v>113</v>
+      </c>
+      <c r="K44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>58</v>
+      </c>
+      <c r="B45" s="3">
+        <v>46019.903692129628</v>
+      </c>
+      <c r="C45" s="3">
+        <v>46019.903923611113</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="2">
+        <v>46012</v>
+      </c>
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" s="3">
+        <v>46018.737962962965</v>
+      </c>
+      <c r="C46" s="3">
+        <v>46018.738217592596</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="2">
+        <v>46014</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3">
+        <v>46019.899178240739</v>
+      </c>
+      <c r="C47" s="3">
+        <v>46019.899560185186</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="2">
+        <v>46014</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" s="3">
+        <v>46019.899583333332</v>
+      </c>
+      <c r="C48" s="3">
+        <v>46019.899872685186</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="2">
+        <v>46014</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48" t="s">
+        <v>119</v>
+      </c>
+      <c r="K48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" s="3">
+        <v>46019.899884259263</v>
+      </c>
+      <c r="C49" s="3">
+        <v>46019.900196759256</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="2">
+        <v>46015</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" s="3">
+        <v>46019.900208333333</v>
+      </c>
+      <c r="C50" s="3">
+        <v>46019.900520833333</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="2">
+        <v>46015</v>
+      </c>
+      <c r="G50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I50" t="s">
+        <v>123</v>
+      </c>
+      <c r="K50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" s="3">
+        <v>46018.382719907408</v>
+      </c>
+      <c r="C51" s="3">
+        <v>46018.383703703701</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="2">
+        <v>46016</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52" s="3">
+        <v>46019.900543981479</v>
+      </c>
+      <c r="C52" s="3">
+        <v>46019.900972222225</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="2">
+        <v>46016</v>
+      </c>
+      <c r="G52" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I52" t="s">
+        <v>125</v>
+      </c>
+      <c r="K52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" s="3">
+        <v>46018.378229166665</v>
+      </c>
+      <c r="C53" s="3">
+        <v>46018.38140046296</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="2">
+        <v>46017</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>49</v>
+      </c>
+      <c r="B54" s="3">
+        <v>46019.900995370372</v>
+      </c>
+      <c r="C54" s="3">
+        <v>46019.901377314818</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="2">
+        <v>46017</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>50</v>
+      </c>
+      <c r="B55" s="3">
+        <v>46019.901412037034</v>
+      </c>
+      <c r="C55" s="3">
+        <v>46019.901736111111</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="2">
+        <v>46017</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>127</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>51</v>
+      </c>
+      <c r="B56" s="3">
+        <v>46019.901747685188</v>
+      </c>
+      <c r="C56" s="3">
+        <v>46019.902025462965</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="2">
+        <v>46018</v>
+      </c>
+      <c r="G56" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I56" t="s">
+        <v>129</v>
+      </c>
+      <c r="K56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>52</v>
+      </c>
+      <c r="B57" s="3">
+        <v>46019.902048611111</v>
+      </c>
+      <c r="C57" s="3">
+        <v>46019.902372685188</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="2">
+        <v>46018</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I57" t="s">
+        <v>131</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>53</v>
+      </c>
+      <c r="B58" s="3">
+        <v>46019.902384259258</v>
+      </c>
+      <c r="C58" s="3">
+        <v>46019.902708333335</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="2">
+        <v>46019</v>
+      </c>
+      <c r="G58" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I58" t="s">
+        <v>133</v>
+      </c>
+      <c r="K58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>43</v>
+      </c>
+      <c r="B59" s="3">
+        <v>46019.898784722223</v>
+      </c>
+      <c r="C59" s="3">
+        <v>46019.899155092593</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="2">
+        <v>46020</v>
+      </c>
+      <c r="G59" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I59" t="s">
+        <v>114</v>
+      </c>
+      <c r="K59" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>